--- a/Projektplan.xlsx
+++ b/Projektplan.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\Projekte\PPSS18Strutz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7F2011A-0E69-4B7A-88E4-60BF81FE0ED1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C2872A7-E41D-44FF-A86D-06DDD482A9A5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22755" windowHeight="10185" xr2:uid="{C2703883-070C-4EA2-B507-5B66C1139CC7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C2703883-070C-4EA2-B507-5B66C1139CC7}"/>
   </bookViews>
   <sheets>
     <sheet name="Februar" sheetId="1" r:id="rId1"/>
-    <sheet name="März" sheetId="2" r:id="rId2"/>
-    <sheet name="April" sheetId="3" r:id="rId3"/>
-    <sheet name="Mai" sheetId="4" r:id="rId4"/>
-    <sheet name="Juni" sheetId="5" r:id="rId5"/>
-    <sheet name="Juli" sheetId="6" r:id="rId6"/>
-    <sheet name="August" sheetId="7" r:id="rId7"/>
+    <sheet name="März" sheetId="8" r:id="rId2"/>
+    <sheet name="April" sheetId="9" r:id="rId3"/>
+    <sheet name="Mai" sheetId="10" r:id="rId4"/>
+    <sheet name="Juni" sheetId="11" r:id="rId5"/>
+    <sheet name="Juli" sheetId="12" r:id="rId6"/>
+    <sheet name="August" sheetId="13" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,6 +28,47 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="12">
+  <si>
+    <t>Arbeit</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Ostern</t>
+  </si>
+  <si>
+    <t>Feiertag</t>
+  </si>
+  <si>
+    <t>Termin Böhmer</t>
+  </si>
+  <si>
+    <t>Klausurtagung</t>
+  </si>
+  <si>
+    <t>Geb. Daniel</t>
+  </si>
+  <si>
+    <t>Turnier Berghausen</t>
+  </si>
+  <si>
+    <t>Zahnarzt</t>
+  </si>
+  <si>
+    <t>Fachschaftssitzung</t>
+  </si>
+  <si>
+    <t>Exposé</t>
+  </si>
+  <si>
+    <t>Bücher zusammenfassen</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -41,15 +82,33 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -57,12 +116,253 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -377,88 +677,4770 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D9D8426-160E-41A5-A1AA-5DC9C589991D}">
-  <dimension ref="A1"/>
+  <dimension ref="B2:Y29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="23" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B2" s="3"/>
+      <c r="C2" s="32">
+        <v>43139</v>
+      </c>
+      <c r="D2" s="32">
+        <v>43140</v>
+      </c>
+      <c r="E2" s="32">
+        <v>43141</v>
+      </c>
+      <c r="F2" s="32">
+        <v>43142</v>
+      </c>
+      <c r="G2" s="32">
+        <v>43143</v>
+      </c>
+      <c r="H2" s="32">
+        <v>43144</v>
+      </c>
+      <c r="I2" s="32">
+        <v>43145</v>
+      </c>
+      <c r="J2" s="32">
+        <v>43146</v>
+      </c>
+      <c r="K2" s="32">
+        <v>43147</v>
+      </c>
+      <c r="L2" s="32">
+        <v>43148</v>
+      </c>
+      <c r="M2" s="32">
+        <v>43149</v>
+      </c>
+      <c r="N2" s="32">
+        <v>43150</v>
+      </c>
+      <c r="O2" s="32">
+        <v>43151</v>
+      </c>
+      <c r="P2" s="32">
+        <v>43152</v>
+      </c>
+      <c r="Q2" s="32">
+        <v>43153</v>
+      </c>
+      <c r="R2" s="32">
+        <v>43154</v>
+      </c>
+      <c r="S2" s="32">
+        <v>43155</v>
+      </c>
+      <c r="T2" s="32">
+        <v>43156</v>
+      </c>
+      <c r="U2" s="32">
+        <v>43157</v>
+      </c>
+      <c r="V2" s="32">
+        <v>43158</v>
+      </c>
+      <c r="W2" s="33">
+        <v>43159</v>
+      </c>
+      <c r="X2" s="34"/>
+      <c r="Y2" s="34"/>
+    </row>
+    <row r="3" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B3" s="4">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="34"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" s="34"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="P3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="R3" s="40"/>
+      <c r="S3" s="40"/>
+      <c r="T3" s="41"/>
+      <c r="U3" s="35"/>
+      <c r="V3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="W3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="X3" s="34"/>
+      <c r="Y3" s="34"/>
+    </row>
+    <row r="4" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B4" s="4">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C4" s="17"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="42"/>
+      <c r="R4" s="43"/>
+      <c r="S4" s="43"/>
+      <c r="T4" s="44"/>
+      <c r="U4" s="35"/>
+      <c r="V4" s="9"/>
+      <c r="W4" s="16"/>
+      <c r="X4" s="34"/>
+      <c r="Y4" s="34"/>
+    </row>
+    <row r="5" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B5" s="4">
+        <v>0.375</v>
+      </c>
+      <c r="C5" s="17"/>
+      <c r="D5" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="35"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="42"/>
+      <c r="R5" s="43"/>
+      <c r="S5" s="43"/>
+      <c r="T5" s="44"/>
+      <c r="U5" s="35"/>
+      <c r="V5" s="9"/>
+      <c r="W5" s="16"/>
+      <c r="X5" s="34"/>
+      <c r="Y5" s="34"/>
+    </row>
+    <row r="6" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B6" s="4">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="C6" s="17"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="35"/>
+      <c r="N6" s="35"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="42"/>
+      <c r="R6" s="43"/>
+      <c r="S6" s="43"/>
+      <c r="T6" s="44"/>
+      <c r="U6" s="35"/>
+      <c r="V6" s="9"/>
+      <c r="W6" s="6"/>
+      <c r="X6" s="34"/>
+      <c r="Y6" s="34"/>
+    </row>
+    <row r="7" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B7" s="4">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="C7" s="17"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="35"/>
+      <c r="M7" s="35"/>
+      <c r="N7" s="35"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="42"/>
+      <c r="R7" s="43"/>
+      <c r="S7" s="43"/>
+      <c r="T7" s="44"/>
+      <c r="U7" s="35"/>
+      <c r="V7" s="9"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="34"/>
+      <c r="Y7" s="34"/>
+    </row>
+    <row r="8" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B8" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="C8" s="17"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="35"/>
+      <c r="N8" s="35"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="42"/>
+      <c r="R8" s="43"/>
+      <c r="S8" s="43"/>
+      <c r="T8" s="44"/>
+      <c r="U8" s="35"/>
+      <c r="V8" s="9"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="34"/>
+      <c r="Y8" s="34"/>
+    </row>
+    <row r="9" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B9" s="4">
+        <v>0.54166666666666696</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="35"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="42"/>
+      <c r="R9" s="43"/>
+      <c r="S9" s="43"/>
+      <c r="T9" s="44"/>
+      <c r="U9" s="35"/>
+      <c r="V9" s="9"/>
+      <c r="W9" s="6"/>
+      <c r="X9" s="34"/>
+      <c r="Y9" s="34"/>
+    </row>
+    <row r="10" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B10" s="4">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="35"/>
+      <c r="N10" s="35"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="42"/>
+      <c r="R10" s="43"/>
+      <c r="S10" s="43"/>
+      <c r="T10" s="44"/>
+      <c r="U10" s="35"/>
+      <c r="V10" s="9"/>
+      <c r="W10" s="6"/>
+      <c r="X10" s="34"/>
+      <c r="Y10" s="34"/>
+    </row>
+    <row r="11" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B11" s="4">
+        <v>0.625</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="35"/>
+      <c r="M11" s="35"/>
+      <c r="N11" s="35"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="42"/>
+      <c r="R11" s="43"/>
+      <c r="S11" s="43"/>
+      <c r="T11" s="44"/>
+      <c r="U11" s="35"/>
+      <c r="V11" s="9"/>
+      <c r="W11" s="6"/>
+      <c r="X11" s="34"/>
+      <c r="Y11" s="34"/>
+    </row>
+    <row r="12" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B12" s="4">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="35"/>
+      <c r="M12" s="35"/>
+      <c r="N12" s="35"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="42"/>
+      <c r="R12" s="43"/>
+      <c r="S12" s="43"/>
+      <c r="T12" s="44"/>
+      <c r="U12" s="35"/>
+      <c r="V12" s="9"/>
+      <c r="W12" s="6"/>
+      <c r="X12" s="34"/>
+      <c r="Y12" s="34"/>
+    </row>
+    <row r="13" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B13" s="4">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="35"/>
+      <c r="N13" s="35"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="42"/>
+      <c r="R13" s="43"/>
+      <c r="S13" s="43"/>
+      <c r="T13" s="44"/>
+      <c r="U13" s="35"/>
+      <c r="V13" s="9"/>
+      <c r="W13" s="6"/>
+      <c r="X13" s="34"/>
+      <c r="Y13" s="34"/>
+    </row>
+    <row r="14" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B14" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="35"/>
+      <c r="N14" s="35"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="42"/>
+      <c r="R14" s="43"/>
+      <c r="S14" s="43"/>
+      <c r="T14" s="44"/>
+      <c r="U14" s="35"/>
+      <c r="V14" s="9"/>
+      <c r="W14" s="6"/>
+      <c r="X14" s="34"/>
+      <c r="Y14" s="34"/>
+    </row>
+    <row r="15" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B15" s="4">
+        <v>0.79166666666666696</v>
+      </c>
+      <c r="C15" s="37"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="35"/>
+      <c r="N15" s="35"/>
+      <c r="O15" s="35"/>
+      <c r="P15" s="35"/>
+      <c r="Q15" s="42"/>
+      <c r="R15" s="43"/>
+      <c r="S15" s="43"/>
+      <c r="T15" s="44"/>
+      <c r="U15" s="35"/>
+      <c r="V15" s="35"/>
+      <c r="W15" s="34"/>
+      <c r="X15" s="34"/>
+      <c r="Y15" s="34"/>
+    </row>
+    <row r="16" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B16" s="4">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="C16" s="37"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="35"/>
+      <c r="N16" s="35"/>
+      <c r="O16" s="35"/>
+      <c r="P16" s="35"/>
+      <c r="Q16" s="42"/>
+      <c r="R16" s="43"/>
+      <c r="S16" s="43"/>
+      <c r="T16" s="44"/>
+      <c r="U16" s="35"/>
+      <c r="V16" s="35"/>
+      <c r="W16" s="34"/>
+      <c r="X16" s="34"/>
+      <c r="Y16" s="34"/>
+    </row>
+    <row r="17" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B17" s="4">
+        <v>0.875</v>
+      </c>
+      <c r="C17" s="37"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="35"/>
+      <c r="M17" s="35"/>
+      <c r="N17" s="35"/>
+      <c r="O17" s="35"/>
+      <c r="P17" s="35"/>
+      <c r="Q17" s="42"/>
+      <c r="R17" s="43"/>
+      <c r="S17" s="43"/>
+      <c r="T17" s="44"/>
+      <c r="U17" s="35"/>
+      <c r="V17" s="35"/>
+      <c r="W17" s="34"/>
+      <c r="X17" s="34"/>
+      <c r="Y17" s="34"/>
+    </row>
+    <row r="18" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="C23" s="1"/>
+    </row>
+    <row r="24" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="C24" s="1"/>
+    </row>
+    <row r="29" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="E29" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="G9:G12"/>
+    <mergeCell ref="W3:W14"/>
+    <mergeCell ref="J5:J8"/>
+    <mergeCell ref="Q3:T17"/>
+    <mergeCell ref="C3:C14"/>
+    <mergeCell ref="H3:H14"/>
+    <mergeCell ref="I3:I14"/>
+    <mergeCell ref="O3:O14"/>
+    <mergeCell ref="P3:P14"/>
+    <mergeCell ref="V3:V14"/>
+    <mergeCell ref="G13:G15"/>
+    <mergeCell ref="F5:F14"/>
+    <mergeCell ref="D5:D14"/>
+    <mergeCell ref="E5:E14"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4B3332E-4F05-4DC1-8EFF-7C01FC3A6CD0}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C6921A9-5628-4AA4-8E8B-0D9B014A3DBB}">
+  <dimension ref="B2:AG22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="31" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B2" s="3"/>
+      <c r="C2" s="7">
+        <v>43525</v>
+      </c>
+      <c r="D2" s="7">
+        <v>43526</v>
+      </c>
+      <c r="E2" s="7">
+        <v>43527</v>
+      </c>
+      <c r="F2" s="7">
+        <v>43528</v>
+      </c>
+      <c r="G2" s="7">
+        <v>43529</v>
+      </c>
+      <c r="H2" s="7">
+        <v>43530</v>
+      </c>
+      <c r="I2" s="7">
+        <v>43531</v>
+      </c>
+      <c r="J2" s="7">
+        <v>43532</v>
+      </c>
+      <c r="K2" s="7">
+        <v>43533</v>
+      </c>
+      <c r="L2" s="7">
+        <v>43534</v>
+      </c>
+      <c r="M2" s="7">
+        <v>43535</v>
+      </c>
+      <c r="N2" s="7">
+        <v>43536</v>
+      </c>
+      <c r="O2" s="7">
+        <v>43537</v>
+      </c>
+      <c r="P2" s="7">
+        <v>43538</v>
+      </c>
+      <c r="Q2" s="7">
+        <v>43539</v>
+      </c>
+      <c r="R2" s="7">
+        <v>43540</v>
+      </c>
+      <c r="S2" s="7">
+        <v>43541</v>
+      </c>
+      <c r="T2" s="7">
+        <v>43542</v>
+      </c>
+      <c r="U2" s="7">
+        <v>43543</v>
+      </c>
+      <c r="V2" s="7">
+        <v>43544</v>
+      </c>
+      <c r="W2" s="7">
+        <v>43545</v>
+      </c>
+      <c r="X2" s="7">
+        <v>43546</v>
+      </c>
+      <c r="Y2" s="7">
+        <v>43547</v>
+      </c>
+      <c r="Z2" s="7">
+        <v>43548</v>
+      </c>
+      <c r="AA2" s="7">
+        <v>43549</v>
+      </c>
+      <c r="AB2" s="7">
+        <v>43550</v>
+      </c>
+      <c r="AC2" s="7">
+        <v>43551</v>
+      </c>
+      <c r="AD2" s="7">
+        <v>43552</v>
+      </c>
+      <c r="AE2" s="7">
+        <v>43553</v>
+      </c>
+      <c r="AF2" s="7">
+        <v>43554</v>
+      </c>
+      <c r="AG2" s="2">
+        <v>43555</v>
+      </c>
+    </row>
+    <row r="3" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B3" s="4">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C3" s="18"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" s="19"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="P3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="20"/>
+      <c r="S3" s="20"/>
+      <c r="T3" s="20"/>
+      <c r="U3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="V3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="X3" s="18"/>
+      <c r="Y3" s="18"/>
+      <c r="Z3" s="18"/>
+      <c r="AA3" s="18"/>
+      <c r="AB3" s="18"/>
+      <c r="AC3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="18"/>
+      <c r="AF3" s="51" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B4" s="4">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="20"/>
+      <c r="T4" s="20"/>
+      <c r="U4" s="9"/>
+      <c r="V4" s="9"/>
+      <c r="X4" s="13"/>
+      <c r="Y4" s="13"/>
+      <c r="Z4" s="13"/>
+      <c r="AA4" s="13"/>
+      <c r="AB4" s="13"/>
+      <c r="AC4" s="9"/>
+      <c r="AD4" s="9"/>
+      <c r="AE4" s="13"/>
+      <c r="AF4" s="52"/>
+    </row>
+    <row r="5" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B5" s="4">
+        <v>0.375</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="R5" s="20"/>
+      <c r="S5" s="20"/>
+      <c r="T5" s="20"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="9"/>
+      <c r="X5" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="13"/>
+      <c r="Z5" s="13"/>
+      <c r="AA5" s="13"/>
+      <c r="AB5" s="13"/>
+      <c r="AC5" s="9"/>
+      <c r="AD5" s="9"/>
+      <c r="AE5" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="52"/>
+    </row>
+    <row r="6" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B6" s="4">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="20"/>
+      <c r="S6" s="20"/>
+      <c r="T6" s="20"/>
+      <c r="U6" s="9"/>
+      <c r="V6" s="9"/>
+      <c r="X6" s="12"/>
+      <c r="Y6" s="13"/>
+      <c r="Z6" s="13"/>
+      <c r="AA6" s="13"/>
+      <c r="AB6" s="13"/>
+      <c r="AC6" s="9"/>
+      <c r="AD6" s="9"/>
+      <c r="AE6" s="12"/>
+      <c r="AF6" s="52"/>
+    </row>
+    <row r="7" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B7" s="4">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="20"/>
+      <c r="S7" s="20"/>
+      <c r="T7" s="20"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="9"/>
+      <c r="X7" s="12"/>
+      <c r="Y7" s="13"/>
+      <c r="Z7" s="13"/>
+      <c r="AA7" s="13"/>
+      <c r="AB7" s="13"/>
+      <c r="AC7" s="9"/>
+      <c r="AD7" s="9"/>
+      <c r="AE7" s="12"/>
+      <c r="AF7" s="52"/>
+    </row>
+    <row r="8" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B8" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="20"/>
+      <c r="T8" s="20"/>
+      <c r="U8" s="9"/>
+      <c r="V8" s="9"/>
+      <c r="X8" s="12"/>
+      <c r="Y8" s="13"/>
+      <c r="Z8" s="13"/>
+      <c r="AA8" s="13"/>
+      <c r="AB8" s="13"/>
+      <c r="AC8" s="9"/>
+      <c r="AD8" s="9"/>
+      <c r="AE8" s="12"/>
+      <c r="AF8" s="52"/>
+    </row>
+    <row r="9" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B9" s="4">
+        <v>0.54166666666666696</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="20"/>
+      <c r="T9" s="20"/>
+      <c r="U9" s="9"/>
+      <c r="V9" s="9"/>
+      <c r="X9" s="13"/>
+      <c r="Y9" s="13"/>
+      <c r="Z9" s="13"/>
+      <c r="AA9" s="13"/>
+      <c r="AB9" s="13"/>
+      <c r="AC9" s="9"/>
+      <c r="AD9" s="9"/>
+      <c r="AE9" s="13"/>
+      <c r="AF9" s="52"/>
+    </row>
+    <row r="10" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B10" s="4">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="20"/>
+      <c r="T10" s="20"/>
+      <c r="U10" s="9"/>
+      <c r="V10" s="9"/>
+      <c r="X10" s="13"/>
+      <c r="Y10" s="13"/>
+      <c r="Z10" s="13"/>
+      <c r="AA10" s="13"/>
+      <c r="AB10" s="13"/>
+      <c r="AC10" s="9"/>
+      <c r="AD10" s="9"/>
+      <c r="AE10" s="13"/>
+      <c r="AF10" s="52"/>
+    </row>
+    <row r="11" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B11" s="4">
+        <v>0.625</v>
+      </c>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="20"/>
+      <c r="S11" s="20"/>
+      <c r="T11" s="20"/>
+      <c r="U11" s="9"/>
+      <c r="V11" s="9"/>
+      <c r="X11" s="13"/>
+      <c r="Y11" s="13"/>
+      <c r="Z11" s="13"/>
+      <c r="AA11" s="13"/>
+      <c r="AB11" s="13"/>
+      <c r="AC11" s="9"/>
+      <c r="AD11" s="9"/>
+      <c r="AE11" s="13"/>
+      <c r="AF11" s="52"/>
+    </row>
+    <row r="12" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B12" s="4">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="D12" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="20"/>
+      <c r="R12" s="20"/>
+      <c r="S12" s="20"/>
+      <c r="T12" s="20"/>
+      <c r="U12" s="9"/>
+      <c r="V12" s="9"/>
+      <c r="X12" s="13"/>
+      <c r="Y12" s="13"/>
+      <c r="Z12" s="13"/>
+      <c r="AA12" s="13"/>
+      <c r="AB12" s="13"/>
+      <c r="AC12" s="9"/>
+      <c r="AD12" s="9"/>
+      <c r="AE12" s="13"/>
+      <c r="AF12" s="52"/>
+    </row>
+    <row r="13" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B13" s="4">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="D13" s="52"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="20"/>
+      <c r="R13" s="20"/>
+      <c r="S13" s="20"/>
+      <c r="T13" s="20"/>
+      <c r="U13" s="9"/>
+      <c r="V13" s="9"/>
+      <c r="X13" s="13"/>
+      <c r="Y13" s="13"/>
+      <c r="Z13" s="13"/>
+      <c r="AA13" s="13"/>
+      <c r="AB13" s="13"/>
+      <c r="AC13" s="9"/>
+      <c r="AD13" s="9"/>
+      <c r="AE13" s="13"/>
+      <c r="AF13" s="52"/>
+    </row>
+    <row r="14" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B14" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="D14" s="52"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="20"/>
+      <c r="S14" s="20"/>
+      <c r="T14" s="20"/>
+      <c r="U14" s="9"/>
+      <c r="V14" s="9"/>
+      <c r="X14" s="13"/>
+      <c r="Y14" s="13"/>
+      <c r="Z14" s="13"/>
+      <c r="AA14" s="13"/>
+      <c r="AB14" s="13"/>
+      <c r="AC14" s="9"/>
+      <c r="AD14" s="9"/>
+      <c r="AE14" s="13"/>
+      <c r="AF14" s="52"/>
+    </row>
+    <row r="15" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B15" s="4">
+        <v>0.79166666666666696</v>
+      </c>
+      <c r="D15" s="52"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="20"/>
+      <c r="P15" s="20"/>
+      <c r="Q15" s="20"/>
+      <c r="R15" s="20"/>
+      <c r="S15" s="20"/>
+      <c r="T15" s="20"/>
+      <c r="U15" s="20"/>
+      <c r="V15" s="20"/>
+      <c r="W15" s="20"/>
+      <c r="X15" s="13"/>
+      <c r="Y15" s="13"/>
+      <c r="Z15" s="13"/>
+      <c r="AA15" s="13"/>
+      <c r="AB15" s="13"/>
+      <c r="AC15" s="13"/>
+      <c r="AD15" s="13"/>
+      <c r="AE15" s="13"/>
+      <c r="AF15" s="52"/>
+    </row>
+    <row r="16" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B16" s="4">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="C16" s="10"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="20"/>
+      <c r="O16" s="20"/>
+      <c r="P16" s="20"/>
+      <c r="Q16" s="20"/>
+      <c r="R16" s="20"/>
+      <c r="S16" s="20"/>
+      <c r="T16" s="20"/>
+      <c r="U16" s="20"/>
+      <c r="V16" s="20"/>
+      <c r="W16" s="20"/>
+      <c r="X16" s="13"/>
+      <c r="Y16" s="13"/>
+      <c r="Z16" s="13"/>
+      <c r="AA16" s="13"/>
+      <c r="AB16" s="13"/>
+      <c r="AC16" s="13"/>
+      <c r="AD16" s="13"/>
+      <c r="AE16" s="13"/>
+      <c r="AF16" s="52"/>
+    </row>
+    <row r="17" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B17" s="4">
+        <v>0.875</v>
+      </c>
+      <c r="C17" s="10"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="13"/>
+      <c r="R17" s="13"/>
+      <c r="S17" s="13"/>
+      <c r="T17" s="13"/>
+      <c r="U17" s="13"/>
+      <c r="V17" s="13"/>
+      <c r="W17" s="13"/>
+      <c r="X17" s="13"/>
+      <c r="Y17" s="13"/>
+      <c r="Z17" s="13"/>
+      <c r="AA17" s="13"/>
+      <c r="AB17" s="13"/>
+      <c r="AC17" s="13"/>
+      <c r="AD17" s="13"/>
+      <c r="AE17" s="13"/>
+      <c r="AF17" s="52"/>
+    </row>
+    <row r="18" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="C22" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="AF3:AF17"/>
+    <mergeCell ref="U3:U14"/>
+    <mergeCell ref="C5:C8"/>
+    <mergeCell ref="J5:J8"/>
+    <mergeCell ref="Q5:Q8"/>
+    <mergeCell ref="X5:X8"/>
+    <mergeCell ref="AE5:AE8"/>
+    <mergeCell ref="AC3:AC14"/>
+    <mergeCell ref="AD3:AD14"/>
+    <mergeCell ref="D12:D17"/>
+    <mergeCell ref="H3:H14"/>
+    <mergeCell ref="I3:I14"/>
+    <mergeCell ref="O3:O14"/>
+    <mergeCell ref="P3:P14"/>
+    <mergeCell ref="V3:V14"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9F35ADB-8FEB-4357-BAE2-56F8D27A5EC7}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5CC377E-F04E-48FF-A4EF-F32AEC3F1264}">
+  <dimension ref="B2:AG22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U24" sqref="U24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="3" max="33" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B2" s="3"/>
+      <c r="C2" s="7">
+        <v>43556</v>
+      </c>
+      <c r="D2" s="7">
+        <v>43557</v>
+      </c>
+      <c r="E2" s="7">
+        <v>43558</v>
+      </c>
+      <c r="F2" s="7">
+        <v>43559</v>
+      </c>
+      <c r="G2" s="7">
+        <v>43560</v>
+      </c>
+      <c r="H2" s="7">
+        <v>43561</v>
+      </c>
+      <c r="I2" s="7">
+        <v>43562</v>
+      </c>
+      <c r="J2" s="7">
+        <v>43563</v>
+      </c>
+      <c r="K2" s="7">
+        <v>43564</v>
+      </c>
+      <c r="L2" s="7">
+        <v>43565</v>
+      </c>
+      <c r="M2" s="7">
+        <v>43566</v>
+      </c>
+      <c r="N2" s="7">
+        <v>43567</v>
+      </c>
+      <c r="O2" s="7">
+        <v>43568</v>
+      </c>
+      <c r="P2" s="7">
+        <v>43569</v>
+      </c>
+      <c r="Q2" s="7">
+        <v>43570</v>
+      </c>
+      <c r="R2" s="7">
+        <v>43571</v>
+      </c>
+      <c r="S2" s="7">
+        <v>43572</v>
+      </c>
+      <c r="T2" s="7">
+        <v>43573</v>
+      </c>
+      <c r="U2" s="7">
+        <v>43574</v>
+      </c>
+      <c r="V2" s="7">
+        <v>43575</v>
+      </c>
+      <c r="W2" s="7">
+        <v>43576</v>
+      </c>
+      <c r="X2" s="7">
+        <v>43577</v>
+      </c>
+      <c r="Y2" s="7">
+        <v>43578</v>
+      </c>
+      <c r="Z2" s="7">
+        <v>43579</v>
+      </c>
+      <c r="AA2" s="7">
+        <v>43580</v>
+      </c>
+      <c r="AB2" s="7">
+        <v>43581</v>
+      </c>
+      <c r="AC2" s="7">
+        <v>43582</v>
+      </c>
+      <c r="AD2" s="7">
+        <v>43583</v>
+      </c>
+      <c r="AE2" s="7">
+        <v>43584</v>
+      </c>
+      <c r="AF2" s="25">
+        <v>43585</v>
+      </c>
+      <c r="AG2" s="15"/>
+    </row>
+    <row r="3" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B3" s="4">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C3" s="18"/>
+      <c r="E3" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="13"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="M3" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="N3" s="20"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="20"/>
+      <c r="S3" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="T3" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="U3" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="V3" s="46"/>
+      <c r="W3" s="46"/>
+      <c r="X3" s="47"/>
+      <c r="Y3" s="18"/>
+      <c r="Z3" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="18"/>
+      <c r="AC3" s="18"/>
+      <c r="AD3" s="18"/>
+      <c r="AE3" s="18"/>
+      <c r="AF3" s="26"/>
+      <c r="AG3" s="27"/>
+    </row>
+    <row r="4" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B4" s="4">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C4" s="13"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="48"/>
+      <c r="V4" s="49"/>
+      <c r="W4" s="49"/>
+      <c r="X4" s="50"/>
+      <c r="Y4" s="13"/>
+      <c r="Z4" s="12"/>
+      <c r="AA4" s="12"/>
+      <c r="AB4" s="13"/>
+      <c r="AC4" s="13"/>
+      <c r="AD4" s="13"/>
+      <c r="AE4" s="13"/>
+      <c r="AF4" s="28"/>
+      <c r="AG4" s="27"/>
+    </row>
+    <row r="5" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B5" s="4">
+        <v>0.375</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="20"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="48"/>
+      <c r="V5" s="49"/>
+      <c r="W5" s="49"/>
+      <c r="X5" s="50"/>
+      <c r="Y5" s="13"/>
+      <c r="Z5" s="12"/>
+      <c r="AA5" s="12"/>
+      <c r="AB5" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="13"/>
+      <c r="AD5" s="13"/>
+      <c r="AE5" s="13"/>
+      <c r="AF5" s="28"/>
+      <c r="AG5" s="27"/>
+    </row>
+    <row r="6" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B6" s="4">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="24"/>
+      <c r="R6" s="20"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="48"/>
+      <c r="V6" s="49"/>
+      <c r="W6" s="49"/>
+      <c r="X6" s="50"/>
+      <c r="Y6" s="13"/>
+      <c r="Z6" s="12"/>
+      <c r="AA6" s="12"/>
+      <c r="AB6" s="12"/>
+      <c r="AC6" s="13"/>
+      <c r="AD6" s="13"/>
+      <c r="AE6" s="13"/>
+      <c r="AF6" s="28"/>
+      <c r="AG6" s="27"/>
+    </row>
+    <row r="7" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B7" s="4">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="24"/>
+      <c r="R7" s="20"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="48"/>
+      <c r="V7" s="49"/>
+      <c r="W7" s="49"/>
+      <c r="X7" s="50"/>
+      <c r="Y7" s="13"/>
+      <c r="Z7" s="12"/>
+      <c r="AA7" s="12"/>
+      <c r="AB7" s="12"/>
+      <c r="AC7" s="13"/>
+      <c r="AD7" s="13"/>
+      <c r="AE7" s="13"/>
+      <c r="AF7" s="28"/>
+      <c r="AG7" s="27"/>
+    </row>
+    <row r="8" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B8" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="24"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="12"/>
+      <c r="U8" s="48"/>
+      <c r="V8" s="49"/>
+      <c r="W8" s="49"/>
+      <c r="X8" s="50"/>
+      <c r="Y8" s="13"/>
+      <c r="Z8" s="12"/>
+      <c r="AA8" s="12"/>
+      <c r="AB8" s="12"/>
+      <c r="AC8" s="13"/>
+      <c r="AD8" s="13"/>
+      <c r="AE8" s="13"/>
+      <c r="AF8" s="28"/>
+      <c r="AG8" s="27"/>
+    </row>
+    <row r="9" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B9" s="4">
+        <v>0.54166666666666696</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="12"/>
+      <c r="T9" s="12"/>
+      <c r="U9" s="48"/>
+      <c r="V9" s="49"/>
+      <c r="W9" s="49"/>
+      <c r="X9" s="50"/>
+      <c r="Y9" s="13"/>
+      <c r="Z9" s="12"/>
+      <c r="AA9" s="12"/>
+      <c r="AB9" s="13"/>
+      <c r="AC9" s="13"/>
+      <c r="AD9" s="13"/>
+      <c r="AE9" s="13"/>
+      <c r="AF9" s="28"/>
+      <c r="AG9" s="27"/>
+    </row>
+    <row r="10" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B10" s="4">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="12"/>
+      <c r="T10" s="12"/>
+      <c r="U10" s="48"/>
+      <c r="V10" s="49"/>
+      <c r="W10" s="49"/>
+      <c r="X10" s="50"/>
+      <c r="Y10" s="13"/>
+      <c r="Z10" s="12"/>
+      <c r="AA10" s="12"/>
+      <c r="AB10" s="13"/>
+      <c r="AC10" s="13"/>
+      <c r="AD10" s="13"/>
+      <c r="AE10" s="13"/>
+      <c r="AF10" s="28"/>
+      <c r="AG10" s="27"/>
+    </row>
+    <row r="11" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B11" s="4">
+        <v>0.625</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="20"/>
+      <c r="S11" s="12"/>
+      <c r="T11" s="12"/>
+      <c r="U11" s="48"/>
+      <c r="V11" s="49"/>
+      <c r="W11" s="49"/>
+      <c r="X11" s="50"/>
+      <c r="Y11" s="13"/>
+      <c r="Z11" s="12"/>
+      <c r="AA11" s="12"/>
+      <c r="AB11" s="13"/>
+      <c r="AC11" s="13"/>
+      <c r="AD11" s="13"/>
+      <c r="AE11" s="13"/>
+      <c r="AF11" s="28"/>
+      <c r="AG11" s="27"/>
+    </row>
+    <row r="12" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B12" s="4">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="D12" s="13"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="20"/>
+      <c r="R12" s="20"/>
+      <c r="S12" s="12"/>
+      <c r="T12" s="12"/>
+      <c r="U12" s="48"/>
+      <c r="V12" s="49"/>
+      <c r="W12" s="49"/>
+      <c r="X12" s="50"/>
+      <c r="Y12" s="13"/>
+      <c r="Z12" s="12"/>
+      <c r="AA12" s="12"/>
+      <c r="AB12" s="13"/>
+      <c r="AC12" s="13"/>
+      <c r="AD12" s="13"/>
+      <c r="AE12" s="13"/>
+      <c r="AF12" s="28"/>
+      <c r="AG12" s="27"/>
+    </row>
+    <row r="13" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B13" s="4">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="D13" s="13"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="22"/>
+      <c r="Q13" s="20"/>
+      <c r="R13" s="20"/>
+      <c r="S13" s="12"/>
+      <c r="T13" s="12"/>
+      <c r="U13" s="48"/>
+      <c r="V13" s="49"/>
+      <c r="W13" s="49"/>
+      <c r="X13" s="50"/>
+      <c r="Y13" s="13"/>
+      <c r="Z13" s="12"/>
+      <c r="AA13" s="12"/>
+      <c r="AB13" s="13"/>
+      <c r="AC13" s="13"/>
+      <c r="AD13" s="13"/>
+      <c r="AE13" s="13"/>
+      <c r="AF13" s="28"/>
+      <c r="AG13" s="27"/>
+    </row>
+    <row r="14" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B14" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="D14" s="13"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="22"/>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="20"/>
+      <c r="S14" s="12"/>
+      <c r="T14" s="12"/>
+      <c r="U14" s="48"/>
+      <c r="V14" s="49"/>
+      <c r="W14" s="49"/>
+      <c r="X14" s="50"/>
+      <c r="Y14" s="13"/>
+      <c r="Z14" s="12"/>
+      <c r="AA14" s="12"/>
+      <c r="AB14" s="13"/>
+      <c r="AC14" s="13"/>
+      <c r="AD14" s="13"/>
+      <c r="AE14" s="13"/>
+      <c r="AF14" s="28"/>
+      <c r="AG14" s="27"/>
+    </row>
+    <row r="15" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B15" s="4">
+        <v>0.79166666666666696</v>
+      </c>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="20"/>
+      <c r="P15" s="20"/>
+      <c r="Q15" s="20"/>
+      <c r="R15" s="20"/>
+      <c r="S15" s="20"/>
+      <c r="T15" s="20"/>
+      <c r="U15" s="48"/>
+      <c r="V15" s="49"/>
+      <c r="W15" s="49"/>
+      <c r="X15" s="50"/>
+      <c r="Y15" s="13"/>
+      <c r="Z15" s="13"/>
+      <c r="AA15" s="13"/>
+      <c r="AB15" s="13"/>
+      <c r="AC15" s="13"/>
+      <c r="AD15" s="13"/>
+      <c r="AE15" s="13"/>
+      <c r="AF15" s="28"/>
+      <c r="AG15" s="27"/>
+    </row>
+    <row r="16" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B16" s="4">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="C16" s="10"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="20"/>
+      <c r="O16" s="20"/>
+      <c r="P16" s="20"/>
+      <c r="Q16" s="20"/>
+      <c r="R16" s="20"/>
+      <c r="S16" s="20"/>
+      <c r="T16" s="20"/>
+      <c r="U16" s="48"/>
+      <c r="V16" s="49"/>
+      <c r="W16" s="49"/>
+      <c r="X16" s="50"/>
+      <c r="Y16" s="13"/>
+      <c r="Z16" s="13"/>
+      <c r="AA16" s="13"/>
+      <c r="AB16" s="13"/>
+      <c r="AC16" s="13"/>
+      <c r="AD16" s="13"/>
+      <c r="AE16" s="13"/>
+      <c r="AF16" s="28"/>
+      <c r="AG16" s="27"/>
+    </row>
+    <row r="17" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B17" s="4">
+        <v>0.875</v>
+      </c>
+      <c r="C17" s="10"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="13"/>
+      <c r="R17" s="13"/>
+      <c r="S17" s="13"/>
+      <c r="T17" s="13"/>
+      <c r="U17" s="48"/>
+      <c r="V17" s="49"/>
+      <c r="W17" s="49"/>
+      <c r="X17" s="50"/>
+      <c r="Y17" s="13"/>
+      <c r="Z17" s="13"/>
+      <c r="AA17" s="13"/>
+      <c r="AB17" s="13"/>
+      <c r="AC17" s="13"/>
+      <c r="AD17" s="13"/>
+      <c r="AE17" s="13"/>
+      <c r="AF17" s="28"/>
+      <c r="AG17" s="27"/>
+    </row>
+    <row r="18" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="C22" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="Z3:Z14"/>
+    <mergeCell ref="AA3:AA14"/>
+    <mergeCell ref="U3:X17"/>
+    <mergeCell ref="G5:G8"/>
+    <mergeCell ref="N5:N8"/>
+    <mergeCell ref="AB5:AB8"/>
+    <mergeCell ref="E3:E14"/>
+    <mergeCell ref="F3:F14"/>
+    <mergeCell ref="L3:L14"/>
+    <mergeCell ref="M3:M14"/>
+    <mergeCell ref="S3:S14"/>
+    <mergeCell ref="T3:T14"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B700485-B0BF-4719-8100-996A860C3983}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0217710F-257F-483F-9FE6-0450751D34B6}">
+  <dimension ref="B2:AH22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="3" max="33" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B2" s="3"/>
+      <c r="C2" s="7">
+        <v>43586</v>
+      </c>
+      <c r="D2" s="7">
+        <v>43587</v>
+      </c>
+      <c r="E2" s="7">
+        <v>43588</v>
+      </c>
+      <c r="F2" s="7">
+        <v>43589</v>
+      </c>
+      <c r="G2" s="7">
+        <v>43590</v>
+      </c>
+      <c r="H2" s="7">
+        <v>43591</v>
+      </c>
+      <c r="I2" s="7">
+        <v>43592</v>
+      </c>
+      <c r="J2" s="7">
+        <v>43593</v>
+      </c>
+      <c r="K2" s="7">
+        <v>43594</v>
+      </c>
+      <c r="L2" s="7">
+        <v>43595</v>
+      </c>
+      <c r="M2" s="7">
+        <v>43596</v>
+      </c>
+      <c r="N2" s="7">
+        <v>43597</v>
+      </c>
+      <c r="O2" s="7">
+        <v>43598</v>
+      </c>
+      <c r="P2" s="7">
+        <v>43599</v>
+      </c>
+      <c r="Q2" s="7">
+        <v>43600</v>
+      </c>
+      <c r="R2" s="7">
+        <v>43601</v>
+      </c>
+      <c r="S2" s="7">
+        <v>43602</v>
+      </c>
+      <c r="T2" s="7">
+        <v>43603</v>
+      </c>
+      <c r="U2" s="7">
+        <v>43604</v>
+      </c>
+      <c r="V2" s="7">
+        <v>43605</v>
+      </c>
+      <c r="W2" s="7">
+        <v>43606</v>
+      </c>
+      <c r="X2" s="7">
+        <v>43607</v>
+      </c>
+      <c r="Y2" s="7">
+        <v>43608</v>
+      </c>
+      <c r="Z2" s="7">
+        <v>43609</v>
+      </c>
+      <c r="AA2" s="7">
+        <v>43610</v>
+      </c>
+      <c r="AB2" s="7">
+        <v>43611</v>
+      </c>
+      <c r="AC2" s="7">
+        <v>43612</v>
+      </c>
+      <c r="AD2" s="7">
+        <v>43613</v>
+      </c>
+      <c r="AE2" s="7">
+        <v>43614</v>
+      </c>
+      <c r="AF2" s="7">
+        <v>43615</v>
+      </c>
+      <c r="AG2" s="25">
+        <v>43616</v>
+      </c>
+      <c r="AH2" s="27"/>
+    </row>
+    <row r="3" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B3" s="4">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C3" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="R3" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="S3" s="20"/>
+      <c r="T3" s="20"/>
+      <c r="U3" s="20"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="21"/>
+      <c r="X3" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="18"/>
+      <c r="AA3" s="18"/>
+      <c r="AB3" s="18"/>
+      <c r="AC3" s="18"/>
+      <c r="AD3" s="18"/>
+      <c r="AE3" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="51" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B4" s="4">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C4" s="52"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="20"/>
+      <c r="T4" s="20"/>
+      <c r="U4" s="20"/>
+      <c r="V4" s="22"/>
+      <c r="W4" s="22"/>
+      <c r="X4" s="12"/>
+      <c r="Y4" s="12"/>
+      <c r="Z4" s="13"/>
+      <c r="AA4" s="13"/>
+      <c r="AB4" s="13"/>
+      <c r="AC4" s="13"/>
+      <c r="AD4" s="13"/>
+      <c r="AE4" s="12"/>
+      <c r="AF4" s="52"/>
+    </row>
+    <row r="5" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B5" s="4">
+        <v>0.375</v>
+      </c>
+      <c r="C5" s="52"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="T5" s="20"/>
+      <c r="U5" s="20"/>
+      <c r="V5" s="22"/>
+      <c r="W5" s="22"/>
+      <c r="X5" s="12"/>
+      <c r="Y5" s="12"/>
+      <c r="Z5" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="13"/>
+      <c r="AB5" s="13"/>
+      <c r="AC5" s="13"/>
+      <c r="AD5" s="13"/>
+      <c r="AE5" s="12"/>
+      <c r="AF5" s="52"/>
+    </row>
+    <row r="6" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B6" s="4">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="C6" s="52"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="20"/>
+      <c r="U6" s="20"/>
+      <c r="V6" s="22"/>
+      <c r="W6" s="22"/>
+      <c r="X6" s="12"/>
+      <c r="Y6" s="12"/>
+      <c r="Z6" s="12"/>
+      <c r="AA6" s="13"/>
+      <c r="AB6" s="13"/>
+      <c r="AC6" s="13"/>
+      <c r="AD6" s="13"/>
+      <c r="AE6" s="12"/>
+      <c r="AF6" s="52"/>
+    </row>
+    <row r="7" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B7" s="4">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="C7" s="52"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="20"/>
+      <c r="U7" s="20"/>
+      <c r="V7" s="22"/>
+      <c r="W7" s="22"/>
+      <c r="X7" s="12"/>
+      <c r="Y7" s="12"/>
+      <c r="Z7" s="12"/>
+      <c r="AA7" s="13"/>
+      <c r="AB7" s="13"/>
+      <c r="AC7" s="13"/>
+      <c r="AD7" s="13"/>
+      <c r="AE7" s="12"/>
+      <c r="AF7" s="52"/>
+    </row>
+    <row r="8" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B8" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="C8" s="52"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="20"/>
+      <c r="U8" s="20"/>
+      <c r="V8" s="22"/>
+      <c r="W8" s="22"/>
+      <c r="X8" s="12"/>
+      <c r="Y8" s="12"/>
+      <c r="Z8" s="12"/>
+      <c r="AA8" s="13"/>
+      <c r="AB8" s="13"/>
+      <c r="AC8" s="13"/>
+      <c r="AD8" s="13"/>
+      <c r="AE8" s="12"/>
+      <c r="AF8" s="52"/>
+    </row>
+    <row r="9" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B9" s="4">
+        <v>0.54166666666666696</v>
+      </c>
+      <c r="C9" s="52"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="20"/>
+      <c r="T9" s="20"/>
+      <c r="U9" s="20"/>
+      <c r="V9" s="22"/>
+      <c r="W9" s="22"/>
+      <c r="X9" s="12"/>
+      <c r="Y9" s="12"/>
+      <c r="Z9" s="13"/>
+      <c r="AA9" s="13"/>
+      <c r="AB9" s="13"/>
+      <c r="AC9" s="13"/>
+      <c r="AD9" s="13"/>
+      <c r="AE9" s="12"/>
+      <c r="AF9" s="52"/>
+    </row>
+    <row r="10" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B10" s="4">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="C10" s="52"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="20"/>
+      <c r="T10" s="20"/>
+      <c r="U10" s="20"/>
+      <c r="V10" s="22"/>
+      <c r="W10" s="22"/>
+      <c r="X10" s="12"/>
+      <c r="Y10" s="12"/>
+      <c r="Z10" s="13"/>
+      <c r="AA10" s="13"/>
+      <c r="AB10" s="13"/>
+      <c r="AC10" s="13"/>
+      <c r="AD10" s="13"/>
+      <c r="AE10" s="12"/>
+      <c r="AF10" s="52"/>
+    </row>
+    <row r="11" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B11" s="4">
+        <v>0.625</v>
+      </c>
+      <c r="C11" s="52"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
+      <c r="S11" s="20"/>
+      <c r="T11" s="20"/>
+      <c r="U11" s="20"/>
+      <c r="V11" s="22"/>
+      <c r="W11" s="22"/>
+      <c r="X11" s="12"/>
+      <c r="Y11" s="12"/>
+      <c r="Z11" s="13"/>
+      <c r="AA11" s="13"/>
+      <c r="AB11" s="13"/>
+      <c r="AC11" s="13"/>
+      <c r="AD11" s="13"/>
+      <c r="AE11" s="12"/>
+      <c r="AF11" s="52"/>
+    </row>
+    <row r="12" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B12" s="4">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="C12" s="52"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="20"/>
+      <c r="T12" s="20"/>
+      <c r="U12" s="20"/>
+      <c r="V12" s="22"/>
+      <c r="W12" s="22"/>
+      <c r="X12" s="12"/>
+      <c r="Y12" s="12"/>
+      <c r="Z12" s="13"/>
+      <c r="AA12" s="13"/>
+      <c r="AB12" s="13"/>
+      <c r="AC12" s="13"/>
+      <c r="AD12" s="13"/>
+      <c r="AE12" s="12"/>
+      <c r="AF12" s="52"/>
+    </row>
+    <row r="13" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B13" s="4">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="C13" s="52"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="22"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="12"/>
+      <c r="S13" s="20"/>
+      <c r="T13" s="20"/>
+      <c r="U13" s="20"/>
+      <c r="V13" s="22"/>
+      <c r="W13" s="22"/>
+      <c r="X13" s="12"/>
+      <c r="Y13" s="12"/>
+      <c r="Z13" s="13"/>
+      <c r="AA13" s="13"/>
+      <c r="AB13" s="13"/>
+      <c r="AC13" s="13"/>
+      <c r="AD13" s="13"/>
+      <c r="AE13" s="12"/>
+      <c r="AF13" s="52"/>
+    </row>
+    <row r="14" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B14" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="C14" s="52"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="22"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12"/>
+      <c r="S14" s="20"/>
+      <c r="T14" s="20"/>
+      <c r="U14" s="20"/>
+      <c r="V14" s="22"/>
+      <c r="W14" s="22"/>
+      <c r="X14" s="12"/>
+      <c r="Y14" s="12"/>
+      <c r="Z14" s="13"/>
+      <c r="AA14" s="13"/>
+      <c r="AB14" s="13"/>
+      <c r="AC14" s="13"/>
+      <c r="AD14" s="13"/>
+      <c r="AE14" s="12"/>
+      <c r="AF14" s="52"/>
+    </row>
+    <row r="15" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B15" s="4">
+        <v>0.79166666666666696</v>
+      </c>
+      <c r="C15" s="52"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="20"/>
+      <c r="P15" s="20"/>
+      <c r="Q15" s="20"/>
+      <c r="R15" s="20"/>
+      <c r="S15" s="20"/>
+      <c r="T15" s="20"/>
+      <c r="U15" s="20"/>
+      <c r="V15" s="20"/>
+      <c r="W15" s="20"/>
+      <c r="X15" s="13"/>
+      <c r="Y15" s="13"/>
+      <c r="Z15" s="13"/>
+      <c r="AA15" s="13"/>
+      <c r="AB15" s="13"/>
+      <c r="AC15" s="13"/>
+      <c r="AD15" s="13"/>
+      <c r="AE15" s="13"/>
+      <c r="AF15" s="52"/>
+    </row>
+    <row r="16" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B16" s="4">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="C16" s="52"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="20"/>
+      <c r="O16" s="20"/>
+      <c r="P16" s="20"/>
+      <c r="Q16" s="20"/>
+      <c r="R16" s="20"/>
+      <c r="S16" s="20"/>
+      <c r="T16" s="20"/>
+      <c r="U16" s="20"/>
+      <c r="V16" s="20"/>
+      <c r="W16" s="20"/>
+      <c r="X16" s="13"/>
+      <c r="Y16" s="13"/>
+      <c r="Z16" s="13"/>
+      <c r="AA16" s="13"/>
+      <c r="AB16" s="13"/>
+      <c r="AC16" s="13"/>
+      <c r="AD16" s="13"/>
+      <c r="AE16" s="13"/>
+      <c r="AF16" s="52"/>
+    </row>
+    <row r="17" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B17" s="4">
+        <v>0.875</v>
+      </c>
+      <c r="C17" s="52"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="13"/>
+      <c r="R17" s="13"/>
+      <c r="S17" s="13"/>
+      <c r="T17" s="13"/>
+      <c r="U17" s="13"/>
+      <c r="V17" s="13"/>
+      <c r="W17" s="13"/>
+      <c r="X17" s="13"/>
+      <c r="Y17" s="13"/>
+      <c r="Z17" s="13"/>
+      <c r="AA17" s="13"/>
+      <c r="AB17" s="13"/>
+      <c r="AC17" s="13"/>
+      <c r="AD17" s="13"/>
+      <c r="AE17" s="13"/>
+      <c r="AF17" s="52"/>
+    </row>
+    <row r="18" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="C22" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="Y3:Y14"/>
+    <mergeCell ref="AE3:AE14"/>
+    <mergeCell ref="AF3:AF17"/>
+    <mergeCell ref="C3:C17"/>
+    <mergeCell ref="E5:E8"/>
+    <mergeCell ref="L5:L8"/>
+    <mergeCell ref="S5:S8"/>
+    <mergeCell ref="Z5:Z8"/>
+    <mergeCell ref="D3:D14"/>
+    <mergeCell ref="K3:K14"/>
+    <mergeCell ref="J3:J14"/>
+    <mergeCell ref="Q3:Q14"/>
+    <mergeCell ref="R3:R14"/>
+    <mergeCell ref="X3:X14"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E864421-AB59-4F9E-908F-DDCD4CA56A89}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD8D28F1-1DFB-4FF8-B7B0-E91D89578D60}">
+  <dimension ref="B2:AG22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="V3" sqref="V3:V17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="3" max="33" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B2" s="3"/>
+      <c r="C2" s="7">
+        <v>43617</v>
+      </c>
+      <c r="D2" s="7">
+        <v>43618</v>
+      </c>
+      <c r="E2" s="7">
+        <v>43619</v>
+      </c>
+      <c r="F2" s="7">
+        <v>43620</v>
+      </c>
+      <c r="G2" s="7">
+        <v>43621</v>
+      </c>
+      <c r="H2" s="7">
+        <v>43622</v>
+      </c>
+      <c r="I2" s="7">
+        <v>43623</v>
+      </c>
+      <c r="J2" s="7">
+        <v>43624</v>
+      </c>
+      <c r="K2" s="7">
+        <v>43625</v>
+      </c>
+      <c r="L2" s="7">
+        <v>43626</v>
+      </c>
+      <c r="M2" s="7">
+        <v>43627</v>
+      </c>
+      <c r="N2" s="7">
+        <v>43628</v>
+      </c>
+      <c r="O2" s="7">
+        <v>43629</v>
+      </c>
+      <c r="P2" s="7">
+        <v>43630</v>
+      </c>
+      <c r="Q2" s="7">
+        <v>43631</v>
+      </c>
+      <c r="R2" s="7">
+        <v>43632</v>
+      </c>
+      <c r="S2" s="7">
+        <v>43633</v>
+      </c>
+      <c r="T2" s="7">
+        <v>43634</v>
+      </c>
+      <c r="U2" s="7">
+        <v>43635</v>
+      </c>
+      <c r="V2" s="7">
+        <v>43636</v>
+      </c>
+      <c r="W2" s="7">
+        <v>43637</v>
+      </c>
+      <c r="X2" s="7">
+        <v>43638</v>
+      </c>
+      <c r="Y2" s="7">
+        <v>43639</v>
+      </c>
+      <c r="Z2" s="7">
+        <v>43640</v>
+      </c>
+      <c r="AA2" s="7">
+        <v>43641</v>
+      </c>
+      <c r="AB2" s="7">
+        <v>43642</v>
+      </c>
+      <c r="AC2" s="7">
+        <v>43643</v>
+      </c>
+      <c r="AD2" s="7">
+        <v>43644</v>
+      </c>
+      <c r="AE2" s="7">
+        <v>43645</v>
+      </c>
+      <c r="AF2" s="25">
+        <v>43646</v>
+      </c>
+      <c r="AG2" s="15"/>
+    </row>
+    <row r="3" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B3" s="4">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C3" s="18"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="21"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="M3" s="20"/>
+      <c r="N3" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="O3" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="20"/>
+      <c r="S3" s="20"/>
+      <c r="T3" s="20"/>
+      <c r="U3" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="V3" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="W3" s="21"/>
+      <c r="X3" s="18"/>
+      <c r="Y3" s="18"/>
+      <c r="Z3" s="18"/>
+      <c r="AA3" s="18"/>
+      <c r="AB3" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="18"/>
+      <c r="AE3" s="18"/>
+      <c r="AF3" s="26"/>
+      <c r="AG3" s="27"/>
+    </row>
+    <row r="4" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B4" s="4">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="20"/>
+      <c r="T4" s="20"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="52"/>
+      <c r="W4" s="22"/>
+      <c r="X4" s="13"/>
+      <c r="Y4" s="13"/>
+      <c r="Z4" s="13"/>
+      <c r="AA4" s="13"/>
+      <c r="AB4" s="12"/>
+      <c r="AC4" s="12"/>
+      <c r="AD4" s="13"/>
+      <c r="AE4" s="13"/>
+      <c r="AF4" s="28"/>
+      <c r="AG4" s="27"/>
+    </row>
+    <row r="5" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B5" s="4">
+        <v>0.375</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="J5" s="24"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="20"/>
+      <c r="S5" s="20"/>
+      <c r="T5" s="20"/>
+      <c r="U5" s="12"/>
+      <c r="V5" s="52"/>
+      <c r="W5" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="X5" s="13"/>
+      <c r="Y5" s="13"/>
+      <c r="Z5" s="13"/>
+      <c r="AA5" s="13"/>
+      <c r="AB5" s="12"/>
+      <c r="AC5" s="12"/>
+      <c r="AD5" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="13"/>
+      <c r="AF5" s="28"/>
+      <c r="AG5" s="27"/>
+    </row>
+    <row r="6" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B6" s="4">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="52"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="24"/>
+      <c r="R6" s="20"/>
+      <c r="S6" s="20"/>
+      <c r="T6" s="20"/>
+      <c r="U6" s="12"/>
+      <c r="V6" s="52"/>
+      <c r="W6" s="12"/>
+      <c r="X6" s="13"/>
+      <c r="Y6" s="13"/>
+      <c r="Z6" s="13"/>
+      <c r="AA6" s="13"/>
+      <c r="AB6" s="12"/>
+      <c r="AC6" s="12"/>
+      <c r="AD6" s="12"/>
+      <c r="AE6" s="13"/>
+      <c r="AF6" s="28"/>
+      <c r="AG6" s="27"/>
+    </row>
+    <row r="7" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B7" s="4">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="24"/>
+      <c r="R7" s="20"/>
+      <c r="S7" s="20"/>
+      <c r="T7" s="20"/>
+      <c r="U7" s="12"/>
+      <c r="V7" s="52"/>
+      <c r="W7" s="12"/>
+      <c r="X7" s="13"/>
+      <c r="Y7" s="13"/>
+      <c r="Z7" s="13"/>
+      <c r="AA7" s="13"/>
+      <c r="AB7" s="12"/>
+      <c r="AC7" s="12"/>
+      <c r="AD7" s="12"/>
+      <c r="AE7" s="13"/>
+      <c r="AF7" s="28"/>
+      <c r="AG7" s="27"/>
+    </row>
+    <row r="8" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B8" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="52"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="24"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="20"/>
+      <c r="T8" s="20"/>
+      <c r="U8" s="12"/>
+      <c r="V8" s="52"/>
+      <c r="W8" s="12"/>
+      <c r="X8" s="13"/>
+      <c r="Y8" s="13"/>
+      <c r="Z8" s="13"/>
+      <c r="AA8" s="13"/>
+      <c r="AB8" s="12"/>
+      <c r="AC8" s="12"/>
+      <c r="AD8" s="12"/>
+      <c r="AE8" s="13"/>
+      <c r="AF8" s="28"/>
+      <c r="AG8" s="27"/>
+    </row>
+    <row r="9" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B9" s="4">
+        <v>0.54166666666666696</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="52"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="20"/>
+      <c r="T9" s="20"/>
+      <c r="U9" s="12"/>
+      <c r="V9" s="52"/>
+      <c r="W9" s="22"/>
+      <c r="X9" s="13"/>
+      <c r="Y9" s="13"/>
+      <c r="Z9" s="13"/>
+      <c r="AA9" s="13"/>
+      <c r="AB9" s="12"/>
+      <c r="AC9" s="12"/>
+      <c r="AD9" s="13"/>
+      <c r="AE9" s="13"/>
+      <c r="AF9" s="28"/>
+      <c r="AG9" s="27"/>
+    </row>
+    <row r="10" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B10" s="4">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="52"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="20"/>
+      <c r="T10" s="20"/>
+      <c r="U10" s="12"/>
+      <c r="V10" s="52"/>
+      <c r="W10" s="22"/>
+      <c r="X10" s="13"/>
+      <c r="Y10" s="13"/>
+      <c r="Z10" s="13"/>
+      <c r="AA10" s="13"/>
+      <c r="AB10" s="12"/>
+      <c r="AC10" s="12"/>
+      <c r="AD10" s="13"/>
+      <c r="AE10" s="13"/>
+      <c r="AF10" s="28"/>
+      <c r="AG10" s="27"/>
+    </row>
+    <row r="11" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B11" s="4">
+        <v>0.625</v>
+      </c>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="52"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="20"/>
+      <c r="S11" s="20"/>
+      <c r="T11" s="20"/>
+      <c r="U11" s="12"/>
+      <c r="V11" s="52"/>
+      <c r="W11" s="22"/>
+      <c r="X11" s="13"/>
+      <c r="Y11" s="13"/>
+      <c r="Z11" s="13"/>
+      <c r="AA11" s="13"/>
+      <c r="AB11" s="12"/>
+      <c r="AC11" s="12"/>
+      <c r="AD11" s="13"/>
+      <c r="AE11" s="13"/>
+      <c r="AF11" s="28"/>
+      <c r="AG11" s="27"/>
+    </row>
+    <row r="12" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B12" s="4">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="52"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="20"/>
+      <c r="R12" s="20"/>
+      <c r="S12" s="20"/>
+      <c r="T12" s="20"/>
+      <c r="U12" s="12"/>
+      <c r="V12" s="52"/>
+      <c r="W12" s="22"/>
+      <c r="X12" s="13"/>
+      <c r="Y12" s="13"/>
+      <c r="Z12" s="13"/>
+      <c r="AA12" s="13"/>
+      <c r="AB12" s="12"/>
+      <c r="AC12" s="12"/>
+      <c r="AD12" s="13"/>
+      <c r="AE12" s="13"/>
+      <c r="AF12" s="28"/>
+      <c r="AG12" s="27"/>
+    </row>
+    <row r="13" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B13" s="4">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="52"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="22"/>
+      <c r="Q13" s="20"/>
+      <c r="R13" s="20"/>
+      <c r="S13" s="20"/>
+      <c r="T13" s="20"/>
+      <c r="U13" s="12"/>
+      <c r="V13" s="52"/>
+      <c r="W13" s="22"/>
+      <c r="X13" s="13"/>
+      <c r="Y13" s="13"/>
+      <c r="Z13" s="13"/>
+      <c r="AA13" s="13"/>
+      <c r="AB13" s="12"/>
+      <c r="AC13" s="12"/>
+      <c r="AD13" s="13"/>
+      <c r="AE13" s="13"/>
+      <c r="AF13" s="28"/>
+      <c r="AG13" s="27"/>
+    </row>
+    <row r="14" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B14" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="52"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="22"/>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="20"/>
+      <c r="S14" s="20"/>
+      <c r="T14" s="20"/>
+      <c r="U14" s="12"/>
+      <c r="V14" s="52"/>
+      <c r="W14" s="22"/>
+      <c r="X14" s="13"/>
+      <c r="Y14" s="13"/>
+      <c r="Z14" s="13"/>
+      <c r="AA14" s="13"/>
+      <c r="AB14" s="12"/>
+      <c r="AC14" s="12"/>
+      <c r="AD14" s="13"/>
+      <c r="AE14" s="13"/>
+      <c r="AF14" s="28"/>
+      <c r="AG14" s="27"/>
+    </row>
+    <row r="15" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B15" s="4">
+        <v>0.79166666666666696</v>
+      </c>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="52"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="20"/>
+      <c r="P15" s="20"/>
+      <c r="Q15" s="20"/>
+      <c r="R15" s="20"/>
+      <c r="S15" s="20"/>
+      <c r="T15" s="20"/>
+      <c r="U15" s="20"/>
+      <c r="V15" s="52"/>
+      <c r="W15" s="20"/>
+      <c r="X15" s="13"/>
+      <c r="Y15" s="13"/>
+      <c r="Z15" s="13"/>
+      <c r="AA15" s="13"/>
+      <c r="AB15" s="13"/>
+      <c r="AC15" s="13"/>
+      <c r="AD15" s="13"/>
+      <c r="AE15" s="13"/>
+      <c r="AF15" s="28"/>
+      <c r="AG15" s="27"/>
+    </row>
+    <row r="16" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B16" s="4">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="C16" s="10"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="52"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="20"/>
+      <c r="O16" s="20"/>
+      <c r="P16" s="20"/>
+      <c r="Q16" s="20"/>
+      <c r="R16" s="20"/>
+      <c r="S16" s="20"/>
+      <c r="T16" s="20"/>
+      <c r="U16" s="20"/>
+      <c r="V16" s="52"/>
+      <c r="W16" s="20"/>
+      <c r="X16" s="13"/>
+      <c r="Y16" s="13"/>
+      <c r="Z16" s="13"/>
+      <c r="AA16" s="13"/>
+      <c r="AB16" s="13"/>
+      <c r="AC16" s="13"/>
+      <c r="AD16" s="13"/>
+      <c r="AE16" s="13"/>
+      <c r="AF16" s="28"/>
+      <c r="AG16" s="27"/>
+    </row>
+    <row r="17" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B17" s="4">
+        <v>0.875</v>
+      </c>
+      <c r="C17" s="10"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="52"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="13"/>
+      <c r="R17" s="13"/>
+      <c r="S17" s="13"/>
+      <c r="T17" s="13"/>
+      <c r="U17" s="13"/>
+      <c r="V17" s="52"/>
+      <c r="W17" s="13"/>
+      <c r="X17" s="13"/>
+      <c r="Y17" s="13"/>
+      <c r="Z17" s="13"/>
+      <c r="AA17" s="13"/>
+      <c r="AB17" s="13"/>
+      <c r="AC17" s="13"/>
+      <c r="AD17" s="13"/>
+      <c r="AE17" s="13"/>
+      <c r="AF17" s="28"/>
+      <c r="AG17" s="27"/>
+    </row>
+    <row r="18" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="C22" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="AC3:AC14"/>
+    <mergeCell ref="L3:L17"/>
+    <mergeCell ref="V3:V17"/>
+    <mergeCell ref="I5:I8"/>
+    <mergeCell ref="P5:P8"/>
+    <mergeCell ref="W5:W8"/>
+    <mergeCell ref="AD5:AD8"/>
+    <mergeCell ref="G3:G14"/>
+    <mergeCell ref="H3:H14"/>
+    <mergeCell ref="N3:N14"/>
+    <mergeCell ref="O3:O14"/>
+    <mergeCell ref="U3:U14"/>
+    <mergeCell ref="AB3:AB14"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{809B2ED9-DE0F-47FC-8B7A-772C8FA38FAC}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCEB82E7-F2D9-45C6-81CF-64DEC877ACB2}">
+  <dimension ref="B1:AH22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="3" max="33" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="AH1" s="27"/>
+    </row>
+    <row r="2" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B2" s="3"/>
+      <c r="C2" s="7">
+        <v>43647</v>
+      </c>
+      <c r="D2" s="7">
+        <v>43648</v>
+      </c>
+      <c r="E2" s="7">
+        <v>43649</v>
+      </c>
+      <c r="F2" s="7">
+        <v>43650</v>
+      </c>
+      <c r="G2" s="7">
+        <v>43651</v>
+      </c>
+      <c r="H2" s="7">
+        <v>43652</v>
+      </c>
+      <c r="I2" s="7">
+        <v>43653</v>
+      </c>
+      <c r="J2" s="7">
+        <v>43654</v>
+      </c>
+      <c r="K2" s="7">
+        <v>43655</v>
+      </c>
+      <c r="L2" s="7">
+        <v>43656</v>
+      </c>
+      <c r="M2" s="7">
+        <v>43657</v>
+      </c>
+      <c r="N2" s="7">
+        <v>43658</v>
+      </c>
+      <c r="O2" s="7">
+        <v>43659</v>
+      </c>
+      <c r="P2" s="7">
+        <v>43660</v>
+      </c>
+      <c r="Q2" s="7">
+        <v>43661</v>
+      </c>
+      <c r="R2" s="7">
+        <v>43662</v>
+      </c>
+      <c r="S2" s="7">
+        <v>43663</v>
+      </c>
+      <c r="T2" s="7">
+        <v>43664</v>
+      </c>
+      <c r="U2" s="7">
+        <v>43665</v>
+      </c>
+      <c r="V2" s="7">
+        <v>43666</v>
+      </c>
+      <c r="W2" s="7">
+        <v>43667</v>
+      </c>
+      <c r="X2" s="7">
+        <v>43668</v>
+      </c>
+      <c r="Y2" s="7">
+        <v>43669</v>
+      </c>
+      <c r="Z2" s="7">
+        <v>43670</v>
+      </c>
+      <c r="AA2" s="7">
+        <v>43671</v>
+      </c>
+      <c r="AB2" s="7">
+        <v>43672</v>
+      </c>
+      <c r="AC2" s="7">
+        <v>43673</v>
+      </c>
+      <c r="AD2" s="7">
+        <v>43674</v>
+      </c>
+      <c r="AE2" s="7">
+        <v>43675</v>
+      </c>
+      <c r="AF2" s="7">
+        <v>43676</v>
+      </c>
+      <c r="AG2" s="25">
+        <v>43677</v>
+      </c>
+      <c r="AH2" s="27"/>
+    </row>
+    <row r="3" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B3" s="4">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C3" s="18"/>
+      <c r="E3" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="13"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="M3" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="N3" s="20"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="20"/>
+      <c r="S3" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="T3" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="U3" s="20"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="21"/>
+      <c r="X3" s="18"/>
+      <c r="Y3" s="18"/>
+      <c r="Z3" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="18"/>
+      <c r="AC3" s="18"/>
+      <c r="AD3" s="18"/>
+      <c r="AE3" s="18"/>
+      <c r="AF3" s="18"/>
+      <c r="AG3" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="27"/>
+    </row>
+    <row r="4" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B4" s="4">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C4" s="13"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="20"/>
+      <c r="V4" s="22"/>
+      <c r="W4" s="22"/>
+      <c r="X4" s="13"/>
+      <c r="Y4" s="13"/>
+      <c r="Z4" s="12"/>
+      <c r="AA4" s="12"/>
+      <c r="AB4" s="13"/>
+      <c r="AC4" s="13"/>
+      <c r="AD4" s="13"/>
+      <c r="AE4" s="13"/>
+      <c r="AF4" s="13"/>
+      <c r="AG4" s="31"/>
+      <c r="AH4" s="27"/>
+    </row>
+    <row r="5" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B5" s="4">
+        <v>0.375</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="20"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="V5" s="22"/>
+      <c r="W5" s="22"/>
+      <c r="X5" s="13"/>
+      <c r="Y5" s="13"/>
+      <c r="Z5" s="12"/>
+      <c r="AA5" s="12"/>
+      <c r="AB5" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="13"/>
+      <c r="AD5" s="13"/>
+      <c r="AE5" s="13"/>
+      <c r="AF5" s="13"/>
+      <c r="AG5" s="31"/>
+      <c r="AH5" s="27"/>
+    </row>
+    <row r="6" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B6" s="4">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="24"/>
+      <c r="R6" s="20"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="12"/>
+      <c r="V6" s="22"/>
+      <c r="W6" s="22"/>
+      <c r="X6" s="13"/>
+      <c r="Y6" s="13"/>
+      <c r="Z6" s="12"/>
+      <c r="AA6" s="12"/>
+      <c r="AB6" s="12"/>
+      <c r="AC6" s="13"/>
+      <c r="AD6" s="13"/>
+      <c r="AE6" s="13"/>
+      <c r="AF6" s="13"/>
+      <c r="AG6" s="31"/>
+      <c r="AH6" s="27"/>
+    </row>
+    <row r="7" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B7" s="4">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="24"/>
+      <c r="R7" s="20"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="12"/>
+      <c r="V7" s="22"/>
+      <c r="W7" s="22"/>
+      <c r="X7" s="13"/>
+      <c r="Y7" s="13"/>
+      <c r="Z7" s="12"/>
+      <c r="AA7" s="12"/>
+      <c r="AB7" s="12"/>
+      <c r="AC7" s="13"/>
+      <c r="AD7" s="13"/>
+      <c r="AE7" s="13"/>
+      <c r="AF7" s="13"/>
+      <c r="AG7" s="31"/>
+      <c r="AH7" s="27"/>
+    </row>
+    <row r="8" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B8" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="24"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="12"/>
+      <c r="U8" s="12"/>
+      <c r="V8" s="22"/>
+      <c r="W8" s="22"/>
+      <c r="X8" s="13"/>
+      <c r="Y8" s="13"/>
+      <c r="Z8" s="12"/>
+      <c r="AA8" s="12"/>
+      <c r="AB8" s="12"/>
+      <c r="AC8" s="13"/>
+      <c r="AD8" s="13"/>
+      <c r="AE8" s="13"/>
+      <c r="AF8" s="13"/>
+      <c r="AG8" s="31"/>
+      <c r="AH8" s="27"/>
+    </row>
+    <row r="9" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B9" s="4">
+        <v>0.54166666666666696</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="12"/>
+      <c r="T9" s="12"/>
+      <c r="U9" s="20"/>
+      <c r="V9" s="22"/>
+      <c r="W9" s="22"/>
+      <c r="X9" s="13"/>
+      <c r="Y9" s="13"/>
+      <c r="Z9" s="12"/>
+      <c r="AA9" s="12"/>
+      <c r="AB9" s="13"/>
+      <c r="AC9" s="13"/>
+      <c r="AD9" s="13"/>
+      <c r="AE9" s="13"/>
+      <c r="AF9" s="13"/>
+      <c r="AG9" s="31"/>
+      <c r="AH9" s="27"/>
+    </row>
+    <row r="10" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B10" s="4">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="D10" s="13"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="S10" s="12"/>
+      <c r="T10" s="12"/>
+      <c r="U10" s="20"/>
+      <c r="V10" s="22"/>
+      <c r="W10" s="22"/>
+      <c r="X10" s="13"/>
+      <c r="Y10" s="13"/>
+      <c r="Z10" s="12"/>
+      <c r="AA10" s="12"/>
+      <c r="AB10" s="13"/>
+      <c r="AC10" s="13"/>
+      <c r="AD10" s="13"/>
+      <c r="AE10" s="13"/>
+      <c r="AF10" s="13"/>
+      <c r="AG10" s="31"/>
+      <c r="AH10" s="27"/>
+    </row>
+    <row r="11" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B11" s="4">
+        <v>0.625</v>
+      </c>
+      <c r="D11" s="13"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="52"/>
+      <c r="S11" s="12"/>
+      <c r="T11" s="12"/>
+      <c r="U11" s="20"/>
+      <c r="V11" s="22"/>
+      <c r="W11" s="22"/>
+      <c r="X11" s="13"/>
+      <c r="Y11" s="13"/>
+      <c r="Z11" s="12"/>
+      <c r="AA11" s="12"/>
+      <c r="AB11" s="13"/>
+      <c r="AC11" s="13"/>
+      <c r="AD11" s="13"/>
+      <c r="AE11" s="13"/>
+      <c r="AF11" s="13"/>
+      <c r="AG11" s="31"/>
+      <c r="AH11" s="27"/>
+    </row>
+    <row r="12" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B12" s="4">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="D12" s="13"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="20"/>
+      <c r="R12" s="52"/>
+      <c r="S12" s="12"/>
+      <c r="T12" s="12"/>
+      <c r="U12" s="20"/>
+      <c r="V12" s="22"/>
+      <c r="W12" s="22"/>
+      <c r="X12" s="13"/>
+      <c r="Y12" s="13"/>
+      <c r="Z12" s="12"/>
+      <c r="AA12" s="12"/>
+      <c r="AB12" s="13"/>
+      <c r="AC12" s="13"/>
+      <c r="AD12" s="13"/>
+      <c r="AE12" s="13"/>
+      <c r="AF12" s="13"/>
+      <c r="AG12" s="31"/>
+      <c r="AH12" s="27"/>
+    </row>
+    <row r="13" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B13" s="4">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="D13" s="13"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="22"/>
+      <c r="Q13" s="20"/>
+      <c r="R13" s="20"/>
+      <c r="S13" s="12"/>
+      <c r="T13" s="12"/>
+      <c r="U13" s="20"/>
+      <c r="V13" s="22"/>
+      <c r="W13" s="22"/>
+      <c r="X13" s="13"/>
+      <c r="Y13" s="13"/>
+      <c r="Z13" s="12"/>
+      <c r="AA13" s="12"/>
+      <c r="AB13" s="13"/>
+      <c r="AC13" s="13"/>
+      <c r="AD13" s="13"/>
+      <c r="AE13" s="13"/>
+      <c r="AF13" s="13"/>
+      <c r="AG13" s="31"/>
+      <c r="AH13" s="27"/>
+    </row>
+    <row r="14" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B14" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="D14" s="13"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="22"/>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="20"/>
+      <c r="S14" s="12"/>
+      <c r="T14" s="12"/>
+      <c r="U14" s="20"/>
+      <c r="V14" s="22"/>
+      <c r="W14" s="22"/>
+      <c r="X14" s="13"/>
+      <c r="Y14" s="13"/>
+      <c r="Z14" s="12"/>
+      <c r="AA14" s="12"/>
+      <c r="AB14" s="13"/>
+      <c r="AC14" s="13"/>
+      <c r="AD14" s="13"/>
+      <c r="AE14" s="13"/>
+      <c r="AF14" s="13"/>
+      <c r="AG14" s="31"/>
+      <c r="AH14" s="27"/>
+    </row>
+    <row r="15" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B15" s="4">
+        <v>0.79166666666666696</v>
+      </c>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="20"/>
+      <c r="P15" s="20"/>
+      <c r="Q15" s="20"/>
+      <c r="R15" s="20"/>
+      <c r="S15" s="20"/>
+      <c r="T15" s="20"/>
+      <c r="U15" s="20"/>
+      <c r="V15" s="20"/>
+      <c r="W15" s="20"/>
+      <c r="X15" s="13"/>
+      <c r="Y15" s="13"/>
+      <c r="Z15" s="13"/>
+      <c r="AA15" s="13"/>
+      <c r="AB15" s="13"/>
+      <c r="AC15" s="13"/>
+      <c r="AD15" s="13"/>
+      <c r="AE15" s="13"/>
+      <c r="AF15" s="13"/>
+      <c r="AH15" s="27"/>
+    </row>
+    <row r="16" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B16" s="4">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="C16" s="10"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="20"/>
+      <c r="O16" s="20"/>
+      <c r="P16" s="20"/>
+      <c r="Q16" s="20"/>
+      <c r="R16" s="20"/>
+      <c r="S16" s="20"/>
+      <c r="T16" s="20"/>
+      <c r="U16" s="20"/>
+      <c r="V16" s="20"/>
+      <c r="W16" s="20"/>
+      <c r="X16" s="13"/>
+      <c r="Y16" s="13"/>
+      <c r="Z16" s="13"/>
+      <c r="AA16" s="13"/>
+      <c r="AB16" s="13"/>
+      <c r="AC16" s="13"/>
+      <c r="AD16" s="13"/>
+      <c r="AE16" s="13"/>
+      <c r="AF16" s="13"/>
+    </row>
+    <row r="17" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B17" s="4">
+        <v>0.875</v>
+      </c>
+      <c r="C17" s="10"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="13"/>
+      <c r="R17" s="13"/>
+      <c r="S17" s="13"/>
+      <c r="T17" s="13"/>
+      <c r="U17" s="13"/>
+      <c r="V17" s="13"/>
+      <c r="W17" s="13"/>
+      <c r="X17" s="13"/>
+      <c r="Y17" s="13"/>
+      <c r="Z17" s="13"/>
+      <c r="AA17" s="13"/>
+      <c r="AB17" s="13"/>
+      <c r="AC17" s="13"/>
+      <c r="AD17" s="13"/>
+      <c r="AE17" s="13"/>
+      <c r="AF17" s="13"/>
+    </row>
+    <row r="18" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="C22" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="Z3:Z14"/>
+    <mergeCell ref="AA3:AA14"/>
+    <mergeCell ref="AG3:AG14"/>
+    <mergeCell ref="R10:R12"/>
+    <mergeCell ref="G5:G8"/>
+    <mergeCell ref="N5:N8"/>
+    <mergeCell ref="U5:U8"/>
+    <mergeCell ref="AB5:AB8"/>
+    <mergeCell ref="E3:E14"/>
+    <mergeCell ref="F3:F14"/>
+    <mergeCell ref="L3:L14"/>
+    <mergeCell ref="M3:M14"/>
+    <mergeCell ref="S3:S14"/>
+    <mergeCell ref="T3:T14"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2546DF0-BE70-48AF-990C-1858E2C1405F}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC724486-B7F6-4144-AAFE-2DF40DBB5F31}">
+  <dimension ref="B2:AH22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="3" max="33" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B2" s="3"/>
+      <c r="C2" s="7">
+        <v>43678</v>
+      </c>
+      <c r="D2" s="7">
+        <v>43679</v>
+      </c>
+      <c r="E2" s="7">
+        <v>43680</v>
+      </c>
+      <c r="F2" s="7">
+        <v>43681</v>
+      </c>
+      <c r="G2" s="7">
+        <v>43682</v>
+      </c>
+      <c r="H2" s="7">
+        <v>43683</v>
+      </c>
+      <c r="I2" s="7">
+        <v>43684</v>
+      </c>
+      <c r="J2" s="7">
+        <v>43685</v>
+      </c>
+      <c r="K2" s="7">
+        <v>43686</v>
+      </c>
+      <c r="L2" s="7">
+        <v>43687</v>
+      </c>
+      <c r="M2" s="7">
+        <v>43688</v>
+      </c>
+      <c r="N2" s="7">
+        <v>43689</v>
+      </c>
+      <c r="O2" s="7">
+        <v>43690</v>
+      </c>
+      <c r="P2" s="7">
+        <v>43691</v>
+      </c>
+      <c r="Q2" s="7">
+        <v>43692</v>
+      </c>
+      <c r="R2" s="7">
+        <v>43693</v>
+      </c>
+      <c r="S2" s="7">
+        <v>43694</v>
+      </c>
+      <c r="T2" s="7">
+        <v>43695</v>
+      </c>
+      <c r="U2" s="7">
+        <v>43696</v>
+      </c>
+      <c r="V2" s="7">
+        <v>43697</v>
+      </c>
+      <c r="W2" s="7">
+        <v>43698</v>
+      </c>
+      <c r="X2" s="7">
+        <v>43699</v>
+      </c>
+      <c r="Y2" s="7">
+        <v>43700</v>
+      </c>
+      <c r="Z2" s="7">
+        <v>43701</v>
+      </c>
+      <c r="AA2" s="7">
+        <v>43702</v>
+      </c>
+      <c r="AB2" s="7">
+        <v>43703</v>
+      </c>
+      <c r="AC2" s="7">
+        <v>43704</v>
+      </c>
+      <c r="AD2" s="7">
+        <v>43705</v>
+      </c>
+      <c r="AE2" s="7">
+        <v>43706</v>
+      </c>
+      <c r="AF2" s="7">
+        <v>43707</v>
+      </c>
+      <c r="AG2" s="25">
+        <v>43708</v>
+      </c>
+      <c r="AH2" s="27"/>
+    </row>
+    <row r="3" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B3" s="4">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="R3" s="20"/>
+      <c r="S3" s="20"/>
+      <c r="T3" s="20"/>
+      <c r="U3" s="20"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="X3" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="18"/>
+      <c r="Z3" s="18"/>
+      <c r="AA3" s="18"/>
+      <c r="AB3" s="18"/>
+      <c r="AC3" s="18"/>
+      <c r="AD3" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="18"/>
+    </row>
+    <row r="4" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B4" s="4">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="20"/>
+      <c r="T4" s="20"/>
+      <c r="U4" s="20"/>
+      <c r="V4" s="22"/>
+      <c r="W4" s="12"/>
+      <c r="X4" s="12"/>
+      <c r="Y4" s="13"/>
+      <c r="Z4" s="13"/>
+      <c r="AA4" s="13"/>
+      <c r="AB4" s="13"/>
+      <c r="AC4" s="13"/>
+      <c r="AD4" s="12"/>
+      <c r="AE4" s="12"/>
+      <c r="AF4" s="13"/>
+    </row>
+    <row r="5" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B5" s="4">
+        <v>0.375</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="S5" s="20"/>
+      <c r="T5" s="20"/>
+      <c r="U5" s="20"/>
+      <c r="V5" s="22"/>
+      <c r="W5" s="12"/>
+      <c r="X5" s="12"/>
+      <c r="Y5" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="13"/>
+      <c r="AA5" s="13"/>
+      <c r="AB5" s="13"/>
+      <c r="AC5" s="13"/>
+      <c r="AD5" s="12"/>
+      <c r="AE5" s="12"/>
+      <c r="AF5" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B6" s="4">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="20"/>
+      <c r="T6" s="20"/>
+      <c r="U6" s="20"/>
+      <c r="V6" s="22"/>
+      <c r="W6" s="12"/>
+      <c r="X6" s="12"/>
+      <c r="Y6" s="12"/>
+      <c r="Z6" s="13"/>
+      <c r="AA6" s="13"/>
+      <c r="AB6" s="13"/>
+      <c r="AC6" s="13"/>
+      <c r="AD6" s="12"/>
+      <c r="AE6" s="12"/>
+      <c r="AF6" s="12"/>
+    </row>
+    <row r="7" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B7" s="4">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="20"/>
+      <c r="T7" s="20"/>
+      <c r="U7" s="20"/>
+      <c r="V7" s="22"/>
+      <c r="W7" s="12"/>
+      <c r="X7" s="12"/>
+      <c r="Y7" s="12"/>
+      <c r="Z7" s="13"/>
+      <c r="AA7" s="13"/>
+      <c r="AB7" s="13"/>
+      <c r="AC7" s="13"/>
+      <c r="AD7" s="12"/>
+      <c r="AE7" s="12"/>
+      <c r="AF7" s="12"/>
+    </row>
+    <row r="8" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B8" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="20"/>
+      <c r="T8" s="20"/>
+      <c r="U8" s="20"/>
+      <c r="V8" s="22"/>
+      <c r="W8" s="12"/>
+      <c r="X8" s="12"/>
+      <c r="Y8" s="12"/>
+      <c r="Z8" s="13"/>
+      <c r="AA8" s="13"/>
+      <c r="AB8" s="13"/>
+      <c r="AC8" s="13"/>
+      <c r="AD8" s="12"/>
+      <c r="AE8" s="12"/>
+      <c r="AF8" s="12"/>
+    </row>
+    <row r="9" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B9" s="4">
+        <v>0.54166666666666696</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="20"/>
+      <c r="T9" s="20"/>
+      <c r="U9" s="20"/>
+      <c r="V9" s="22"/>
+      <c r="W9" s="12"/>
+      <c r="X9" s="12"/>
+      <c r="Y9" s="13"/>
+      <c r="Z9" s="13"/>
+      <c r="AA9" s="13"/>
+      <c r="AB9" s="13"/>
+      <c r="AC9" s="13"/>
+      <c r="AD9" s="12"/>
+      <c r="AE9" s="12"/>
+      <c r="AF9" s="13"/>
+    </row>
+    <row r="10" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B10" s="4">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="20"/>
+      <c r="T10" s="20"/>
+      <c r="U10" s="20"/>
+      <c r="V10" s="22"/>
+      <c r="W10" s="12"/>
+      <c r="X10" s="12"/>
+      <c r="Y10" s="13"/>
+      <c r="Z10" s="13"/>
+      <c r="AA10" s="13"/>
+      <c r="AB10" s="13"/>
+      <c r="AC10" s="13"/>
+      <c r="AD10" s="12"/>
+      <c r="AE10" s="12"/>
+      <c r="AF10" s="13"/>
+    </row>
+    <row r="11" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B11" s="4">
+        <v>0.625</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="20"/>
+      <c r="S11" s="20"/>
+      <c r="T11" s="20"/>
+      <c r="U11" s="20"/>
+      <c r="V11" s="22"/>
+      <c r="W11" s="12"/>
+      <c r="X11" s="12"/>
+      <c r="Y11" s="13"/>
+      <c r="Z11" s="13"/>
+      <c r="AA11" s="13"/>
+      <c r="AB11" s="13"/>
+      <c r="AC11" s="13"/>
+      <c r="AD11" s="12"/>
+      <c r="AE11" s="12"/>
+      <c r="AF11" s="13"/>
+    </row>
+    <row r="12" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B12" s="4">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="C12" s="12"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="20"/>
+      <c r="S12" s="20"/>
+      <c r="T12" s="20"/>
+      <c r="U12" s="20"/>
+      <c r="V12" s="22"/>
+      <c r="W12" s="12"/>
+      <c r="X12" s="12"/>
+      <c r="Y12" s="13"/>
+      <c r="Z12" s="13"/>
+      <c r="AA12" s="13"/>
+      <c r="AB12" s="13"/>
+      <c r="AC12" s="13"/>
+      <c r="AD12" s="12"/>
+      <c r="AE12" s="12"/>
+      <c r="AF12" s="13"/>
+    </row>
+    <row r="13" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B13" s="4">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="C13" s="12"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="20"/>
+      <c r="S13" s="20"/>
+      <c r="T13" s="20"/>
+      <c r="U13" s="20"/>
+      <c r="V13" s="22"/>
+      <c r="W13" s="12"/>
+      <c r="X13" s="12"/>
+      <c r="Y13" s="13"/>
+      <c r="Z13" s="13"/>
+      <c r="AA13" s="13"/>
+      <c r="AB13" s="13"/>
+      <c r="AC13" s="13"/>
+      <c r="AD13" s="12"/>
+      <c r="AE13" s="12"/>
+      <c r="AF13" s="13"/>
+    </row>
+    <row r="14" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B14" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="C14" s="12"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="20"/>
+      <c r="S14" s="20"/>
+      <c r="T14" s="20"/>
+      <c r="U14" s="20"/>
+      <c r="V14" s="22"/>
+      <c r="W14" s="12"/>
+      <c r="X14" s="12"/>
+      <c r="Y14" s="13"/>
+      <c r="Z14" s="13"/>
+      <c r="AA14" s="13"/>
+      <c r="AB14" s="13"/>
+      <c r="AC14" s="13"/>
+      <c r="AD14" s="12"/>
+      <c r="AE14" s="12"/>
+      <c r="AF14" s="13"/>
+    </row>
+    <row r="15" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B15" s="4">
+        <v>0.79166666666666696</v>
+      </c>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="20"/>
+      <c r="P15" s="20"/>
+      <c r="Q15" s="20"/>
+      <c r="R15" s="20"/>
+      <c r="S15" s="20"/>
+      <c r="T15" s="20"/>
+      <c r="U15" s="20"/>
+      <c r="V15" s="20"/>
+      <c r="W15" s="20"/>
+      <c r="X15" s="13"/>
+      <c r="Y15" s="13"/>
+      <c r="Z15" s="13"/>
+      <c r="AA15" s="13"/>
+      <c r="AB15" s="13"/>
+      <c r="AC15" s="13"/>
+      <c r="AD15" s="13"/>
+      <c r="AE15" s="13"/>
+      <c r="AF15" s="13"/>
+    </row>
+    <row r="16" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B16" s="4">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="C16" s="10"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="20"/>
+      <c r="O16" s="20"/>
+      <c r="P16" s="20"/>
+      <c r="Q16" s="20"/>
+      <c r="R16" s="20"/>
+      <c r="S16" s="20"/>
+      <c r="T16" s="20"/>
+      <c r="U16" s="20"/>
+      <c r="V16" s="20"/>
+      <c r="W16" s="20"/>
+      <c r="X16" s="13"/>
+      <c r="Y16" s="13"/>
+      <c r="Z16" s="13"/>
+      <c r="AA16" s="13"/>
+      <c r="AB16" s="13"/>
+      <c r="AC16" s="13"/>
+      <c r="AD16" s="13"/>
+      <c r="AE16" s="13"/>
+      <c r="AF16" s="13"/>
+    </row>
+    <row r="17" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B17" s="4">
+        <v>0.875</v>
+      </c>
+      <c r="C17" s="10"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="13"/>
+      <c r="R17" s="13"/>
+      <c r="S17" s="13"/>
+      <c r="T17" s="13"/>
+      <c r="U17" s="13"/>
+      <c r="V17" s="13"/>
+      <c r="W17" s="13"/>
+      <c r="X17" s="13"/>
+      <c r="Y17" s="13"/>
+      <c r="Z17" s="13"/>
+      <c r="AA17" s="13"/>
+      <c r="AB17" s="13"/>
+      <c r="AC17" s="13"/>
+      <c r="AD17" s="13"/>
+      <c r="AE17" s="13"/>
+      <c r="AF17" s="13"/>
+    </row>
+    <row r="18" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="C22" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="AF5:AF8"/>
+    <mergeCell ref="I3:I14"/>
+    <mergeCell ref="J3:J14"/>
+    <mergeCell ref="P3:P14"/>
+    <mergeCell ref="Q3:Q14"/>
+    <mergeCell ref="W3:W14"/>
+    <mergeCell ref="X3:X14"/>
+    <mergeCell ref="AD3:AD14"/>
+    <mergeCell ref="AE3:AE14"/>
+    <mergeCell ref="D5:D8"/>
+    <mergeCell ref="C3:C14"/>
+    <mergeCell ref="K5:K8"/>
+    <mergeCell ref="R5:R8"/>
+    <mergeCell ref="Y5:Y8"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>